--- a/natmiOut/OldD2/LR-pairs_lrc2p/Cd28-Cd80.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Cd28-Cd80.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,12 +76,18 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Cd28</t>
   </si>
   <si>
@@ -91,13 +97,7 @@
     <t>ECs</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
     <t>Neutro</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>3.39716920675431</v>
+        <v>0.03348566666666667</v>
       </c>
       <c r="H2">
-        <v>3.39716920675431</v>
+        <v>0.100457</v>
       </c>
       <c r="I2">
-        <v>0.383289648760727</v>
+        <v>0.00318114446498929</v>
       </c>
       <c r="J2">
-        <v>0.383289648760727</v>
+        <v>0.003186869275039188</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.30378235703663</v>
+        <v>1.3106835</v>
       </c>
       <c r="N2">
-        <v>1.30378235703663</v>
+        <v>2.621367</v>
       </c>
       <c r="O2">
-        <v>0.03819106114312529</v>
+        <v>0.03638853870331563</v>
       </c>
       <c r="P2">
-        <v>0.03819106114312529</v>
+        <v>0.02494331542607714</v>
       </c>
       <c r="Q2">
-        <v>4.429169275634393</v>
+        <v>0.04388911078650001</v>
       </c>
       <c r="R2">
-        <v>4.429169275634393</v>
+        <v>0.263334664719</v>
       </c>
       <c r="S2">
-        <v>0.01463823841134794</v>
+        <v>0.0001157571984851011</v>
       </c>
       <c r="T2">
-        <v>0.01463823841134794</v>
+        <v>7.949108554897623E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>3.39716920675431</v>
+        <v>0.03348566666666667</v>
       </c>
       <c r="H3">
-        <v>3.39716920675431</v>
+        <v>0.100457</v>
       </c>
       <c r="I3">
-        <v>0.383289648760727</v>
+        <v>0.00318114446498929</v>
       </c>
       <c r="J3">
-        <v>0.383289648760727</v>
+        <v>0.003186869275039188</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.36915082219686</v>
+        <v>1.420479333333333</v>
       </c>
       <c r="N3">
-        <v>1.36915082219686</v>
+        <v>4.261438</v>
       </c>
       <c r="O3">
-        <v>0.04010586773357561</v>
+        <v>0.03943680316282304</v>
       </c>
       <c r="P3">
-        <v>0.04010586773357561</v>
+        <v>0.04054922191462366</v>
       </c>
       <c r="Q3">
-        <v>4.651237012569518</v>
+        <v>0.0475656974628889</v>
       </c>
       <c r="R3">
-        <v>4.651237012569518</v>
+        <v>0.428091277166</v>
       </c>
       <c r="S3">
-        <v>0.01537216395684637</v>
+        <v>0.0001254541680982866</v>
       </c>
       <c r="T3">
-        <v>0.01537216395684637</v>
+        <v>0.0001292250694464599</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>3.39716920675431</v>
+        <v>0.03348566666666667</v>
       </c>
       <c r="H4">
-        <v>3.39716920675431</v>
+        <v>0.100457</v>
       </c>
       <c r="I4">
-        <v>0.383289648760727</v>
+        <v>0.00318114446498929</v>
       </c>
       <c r="J4">
-        <v>0.383289648760727</v>
+        <v>0.003186869275039188</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.963859370343</v>
+        <v>17.64166233333333</v>
       </c>
       <c r="N4">
-        <v>15.963859370343</v>
+        <v>52.924987</v>
       </c>
       <c r="O4">
-        <v>0.4676215520194327</v>
+        <v>0.4897859114022</v>
       </c>
       <c r="P4">
-        <v>0.4676215520194327</v>
+        <v>0.5036016111677731</v>
       </c>
       <c r="Q4">
-        <v>54.23193147388549</v>
+        <v>0.5907428243398889</v>
       </c>
       <c r="R4">
-        <v>54.23193147388549</v>
+        <v>5.316685419059</v>
       </c>
       <c r="S4">
-        <v>0.1792345004264744</v>
+        <v>0.001558079741086843</v>
       </c>
       <c r="T4">
-        <v>0.1792345004264744</v>
+        <v>0.001604912501490808</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>3.39716920675431</v>
+        <v>0.03348566666666667</v>
       </c>
       <c r="H5">
-        <v>3.39716920675431</v>
+        <v>0.100457</v>
       </c>
       <c r="I5">
-        <v>0.383289648760727</v>
+        <v>0.00318114446498929</v>
       </c>
       <c r="J5">
-        <v>0.383289648760727</v>
+        <v>0.003186869275039188</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.3836674064286</v>
+        <v>13.46419533333333</v>
       </c>
       <c r="N5">
-        <v>13.3836674064286</v>
+        <v>40.39258599999999</v>
       </c>
       <c r="O5">
-        <v>0.3920412463625685</v>
+        <v>0.3738067908812475</v>
       </c>
       <c r="P5">
-        <v>0.3920412463625685</v>
+        <v>0.3843509945280257</v>
       </c>
       <c r="Q5">
-        <v>45.46658278656056</v>
+        <v>0.4508575568668888</v>
       </c>
       <c r="R5">
-        <v>45.46658278656056</v>
+        <v>4.057718011802</v>
       </c>
       <c r="S5">
-        <v>0.1502653516180265</v>
+        <v>0.00118913340378729</v>
       </c>
       <c r="T5">
-        <v>0.1502653516180265</v>
+        <v>0.00122487637529212</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>3.39716920675431</v>
+        <v>0.03348566666666667</v>
       </c>
       <c r="H6">
-        <v>3.39716920675431</v>
+        <v>0.100457</v>
       </c>
       <c r="I6">
-        <v>0.383289648760727</v>
+        <v>0.00318114446498929</v>
       </c>
       <c r="J6">
-        <v>0.383289648760727</v>
+        <v>0.003186869275039188</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.477893380492059</v>
+        <v>0.5283693333333334</v>
       </c>
       <c r="N6">
-        <v>0.477893380492059</v>
+        <v>1.585108</v>
       </c>
       <c r="O6">
-        <v>0.01399869787757397</v>
+        <v>0.01466913098062581</v>
       </c>
       <c r="P6">
-        <v>0.01399869787757397</v>
+        <v>0.01508291239967478</v>
       </c>
       <c r="Q6">
-        <v>1.623484676319344</v>
+        <v>0.01769279937288889</v>
       </c>
       <c r="R6">
-        <v>1.623484676319344</v>
+        <v>0.159235194356</v>
       </c>
       <c r="S6">
-        <v>0.005365555992602861</v>
+        <v>4.666462482522073E-05</v>
       </c>
       <c r="T6">
-        <v>0.005365555992602861</v>
+        <v>4.806727010463114E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>3.39716920675431</v>
+        <v>0.03348566666666667</v>
       </c>
       <c r="H7">
-        <v>3.39716920675431</v>
+        <v>0.100457</v>
       </c>
       <c r="I7">
-        <v>0.383289648760727</v>
+        <v>0.00318114446498929</v>
       </c>
       <c r="J7">
-        <v>0.383289648760727</v>
+        <v>0.003186869275039188</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.64006329849918</v>
+        <v>1.65374</v>
       </c>
       <c r="N7">
-        <v>1.64006329849918</v>
+        <v>3.30748</v>
       </c>
       <c r="O7">
-        <v>0.0480415748637241</v>
+        <v>0.0459128248697883</v>
       </c>
       <c r="P7">
-        <v>0.0480415748637241</v>
+        <v>0.03147194456382552</v>
       </c>
       <c r="Q7">
-        <v>5.571572534789317</v>
+        <v>0.05537658639333334</v>
       </c>
       <c r="R7">
-        <v>5.571572534789317</v>
+        <v>0.33225951836</v>
       </c>
       <c r="S7">
-        <v>0.01841383835542898</v>
+        <v>0.0001460553287065497</v>
       </c>
       <c r="T7">
-        <v>0.01841383835542898</v>
+        <v>0.0001002969731561921</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.46602137962918</v>
+        <v>4.687095</v>
       </c>
       <c r="H8">
-        <v>5.46602137962918</v>
+        <v>14.061285</v>
       </c>
       <c r="I8">
-        <v>0.616710351239273</v>
+        <v>0.4452748832673376</v>
       </c>
       <c r="J8">
-        <v>0.616710351239273</v>
+        <v>0.446076203092561</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.30378235703663</v>
+        <v>1.3106835</v>
       </c>
       <c r="N8">
-        <v>1.30378235703663</v>
+        <v>2.621367</v>
       </c>
       <c r="O8">
-        <v>0.03819106114312529</v>
+        <v>0.03638853870331563</v>
       </c>
       <c r="P8">
-        <v>0.03819106114312529</v>
+        <v>0.02494331542607714</v>
       </c>
       <c r="Q8">
-        <v>7.126502237945544</v>
+        <v>6.143298079432501</v>
       </c>
       <c r="R8">
-        <v>7.126502237945544</v>
+        <v>36.859788476595</v>
       </c>
       <c r="S8">
-        <v>0.02355282273177735</v>
+        <v>0.01620290232338786</v>
       </c>
       <c r="T8">
-        <v>0.02355282273177735</v>
+        <v>0.0111266194378046</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.46602137962918</v>
+        <v>4.687095</v>
       </c>
       <c r="H9">
-        <v>5.46602137962918</v>
+        <v>14.061285</v>
       </c>
       <c r="I9">
-        <v>0.616710351239273</v>
+        <v>0.4452748832673376</v>
       </c>
       <c r="J9">
-        <v>0.616710351239273</v>
+        <v>0.446076203092561</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.36915082219686</v>
+        <v>1.420479333333333</v>
       </c>
       <c r="N9">
-        <v>1.36915082219686</v>
+        <v>4.261438</v>
       </c>
       <c r="O9">
-        <v>0.04010586773357561</v>
+        <v>0.03943680316282304</v>
       </c>
       <c r="P9">
-        <v>0.04010586773357561</v>
+        <v>0.04054922191462366</v>
       </c>
       <c r="Q9">
-        <v>7.483807666064907</v>
+        <v>6.657921580870001</v>
       </c>
       <c r="R9">
-        <v>7.483807666064907</v>
+        <v>59.92129422783</v>
       </c>
       <c r="S9">
-        <v>0.02473370377672924</v>
+        <v>0.017560217924763</v>
       </c>
       <c r="T9">
-        <v>0.02473370377672924</v>
+        <v>0.01808804295003299</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.46602137962918</v>
+        <v>4.687095</v>
       </c>
       <c r="H10">
-        <v>5.46602137962918</v>
+        <v>14.061285</v>
       </c>
       <c r="I10">
-        <v>0.616710351239273</v>
+        <v>0.4452748832673376</v>
       </c>
       <c r="J10">
-        <v>0.616710351239273</v>
+        <v>0.446076203092561</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.963859370343</v>
+        <v>17.64166233333333</v>
       </c>
       <c r="N10">
-        <v>15.963859370343</v>
+        <v>52.924987</v>
       </c>
       <c r="O10">
-        <v>0.4676215520194327</v>
+        <v>0.4897859114022</v>
       </c>
       <c r="P10">
-        <v>0.4676215520194327</v>
+        <v>0.5036016111677731</v>
       </c>
       <c r="Q10">
-        <v>87.25879661968845</v>
+        <v>82.688147314255</v>
       </c>
       <c r="R10">
-        <v>87.25879661968845</v>
+        <v>744.193325828295</v>
       </c>
       <c r="S10">
-        <v>0.2883870515929583</v>
+        <v>0.2180893645256012</v>
       </c>
       <c r="T10">
-        <v>0.2883870515929583</v>
+        <v>0.2246446945810165</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.46602137962918</v>
+        <v>4.687095</v>
       </c>
       <c r="H11">
-        <v>5.46602137962918</v>
+        <v>14.061285</v>
       </c>
       <c r="I11">
-        <v>0.616710351239273</v>
+        <v>0.4452748832673376</v>
       </c>
       <c r="J11">
-        <v>0.616710351239273</v>
+        <v>0.446076203092561</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.3836674064286</v>
+        <v>13.46419533333333</v>
       </c>
       <c r="N11">
-        <v>13.3836674064286</v>
+        <v>40.39258599999999</v>
       </c>
       <c r="O11">
-        <v>0.3920412463625685</v>
+        <v>0.3738067908812475</v>
       </c>
       <c r="P11">
-        <v>0.3920412463625685</v>
+        <v>0.3843509945280257</v>
       </c>
       <c r="Q11">
-        <v>73.15541218138495</v>
+        <v>63.10796262588999</v>
       </c>
       <c r="R11">
-        <v>73.15541218138495</v>
+        <v>567.9716636330099</v>
       </c>
       <c r="S11">
-        <v>0.241775894744542</v>
+        <v>0.1664467751741855</v>
       </c>
       <c r="T11">
-        <v>0.241775894744542</v>
+        <v>0.1714498322939114</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.46602137962918</v>
+        <v>4.687095</v>
       </c>
       <c r="H12">
-        <v>5.46602137962918</v>
+        <v>14.061285</v>
       </c>
       <c r="I12">
-        <v>0.616710351239273</v>
+        <v>0.4452748832673376</v>
       </c>
       <c r="J12">
-        <v>0.616710351239273</v>
+        <v>0.446076203092561</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.477893380492059</v>
+        <v>0.5283693333333334</v>
       </c>
       <c r="N12">
-        <v>0.477893380492059</v>
+        <v>1.585108</v>
       </c>
       <c r="O12">
-        <v>0.01399869787757397</v>
+        <v>0.01466913098062581</v>
       </c>
       <c r="P12">
-        <v>0.01399869787757397</v>
+        <v>0.01508291239967478</v>
       </c>
       <c r="Q12">
-        <v>2.612175434952857</v>
+        <v>2.47651726042</v>
       </c>
       <c r="R12">
-        <v>2.612175434952857</v>
+        <v>22.28865534378</v>
       </c>
       <c r="S12">
-        <v>0.008633141884971109</v>
+        <v>0.006531795585031445</v>
       </c>
       <c r="T12">
-        <v>0.008633141884971109</v>
+        <v>0.006728128294824633</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,805 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>4.687095</v>
+      </c>
+      <c r="H13">
+        <v>14.061285</v>
+      </c>
+      <c r="I13">
+        <v>0.4452748832673376</v>
+      </c>
+      <c r="J13">
+        <v>0.446076203092561</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.65374</v>
+      </c>
+      <c r="N13">
+        <v>3.30748</v>
+      </c>
+      <c r="O13">
+        <v>0.0459128248697883</v>
+      </c>
+      <c r="P13">
+        <v>0.03147194456382552</v>
+      </c>
+      <c r="Q13">
+        <v>7.751236485300001</v>
+      </c>
+      <c r="R13">
+        <v>46.5074189118</v>
+      </c>
+      <c r="S13">
+        <v>0.0204438277343687</v>
+      </c>
+      <c r="T13">
+        <v>0.01403888553497085</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>5.748987333333333</v>
+      </c>
+      <c r="H14">
+        <v>17.246962</v>
+      </c>
+      <c r="I14">
+        <v>0.5461548493801389</v>
+      </c>
+      <c r="J14">
+        <v>0.5471377135049664</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.3106835</v>
+      </c>
+      <c r="N14">
+        <v>2.621367</v>
+      </c>
+      <c r="O14">
+        <v>0.03638853870331563</v>
+      </c>
+      <c r="P14">
+        <v>0.02494331542607714</v>
+      </c>
+      <c r="Q14">
+        <v>7.535102839509</v>
+      </c>
+      <c r="R14">
+        <v>45.21061703705401</v>
+      </c>
+      <c r="S14">
+        <v>0.0198737768746727</v>
+      </c>
+      <c r="T14">
+        <v>0.013647428569457</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>5.748987333333333</v>
+      </c>
+      <c r="H15">
+        <v>17.246962</v>
+      </c>
+      <c r="I15">
+        <v>0.5461548493801389</v>
+      </c>
+      <c r="J15">
+        <v>0.5471377135049664</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.420479333333333</v>
+      </c>
+      <c r="N15">
+        <v>4.261438</v>
+      </c>
+      <c r="O15">
+        <v>0.03943680316282304</v>
+      </c>
+      <c r="P15">
+        <v>0.04054922191462366</v>
+      </c>
+      <c r="Q15">
+        <v>8.166317694595111</v>
+      </c>
+      <c r="R15">
+        <v>73.496859251356</v>
+      </c>
+      <c r="S15">
+        <v>0.0215386012914258</v>
+      </c>
+      <c r="T15">
+        <v>0.02218600856277267</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>5.748987333333333</v>
+      </c>
+      <c r="H16">
+        <v>17.246962</v>
+      </c>
+      <c r="I16">
+        <v>0.5461548493801389</v>
+      </c>
+      <c r="J16">
+        <v>0.5471377135049664</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>17.64166233333333</v>
+      </c>
+      <c r="N16">
+        <v>52.924987</v>
+      </c>
+      <c r="O16">
+        <v>0.4897859114022</v>
+      </c>
+      <c r="P16">
+        <v>0.5036016111677731</v>
+      </c>
+      <c r="Q16">
+        <v>101.4216932932771</v>
+      </c>
+      <c r="R16">
+        <v>912.7952396394941</v>
+      </c>
+      <c r="S16">
+        <v>0.2674989506703826</v>
+      </c>
+      <c r="T16">
+        <v>0.2755394340517526</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>5.748987333333333</v>
+      </c>
+      <c r="H17">
+        <v>17.246962</v>
+      </c>
+      <c r="I17">
+        <v>0.5461548493801389</v>
+      </c>
+      <c r="J17">
+        <v>0.5471377135049664</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>13.46419533333333</v>
+      </c>
+      <c r="N17">
+        <v>40.39258599999999</v>
+      </c>
+      <c r="O17">
+        <v>0.3738067908812475</v>
+      </c>
+      <c r="P17">
+        <v>0.3843509945280257</v>
+      </c>
+      <c r="Q17">
+        <v>77.40548842485909</v>
+      </c>
+      <c r="R17">
+        <v>696.6493958237319</v>
+      </c>
+      <c r="S17">
+        <v>0.2041563915710208</v>
+      </c>
+      <c r="T17">
+        <v>0.2102929243294239</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>5.748987333333333</v>
+      </c>
+      <c r="H18">
+        <v>17.246962</v>
+      </c>
+      <c r="I18">
+        <v>0.5461548493801389</v>
+      </c>
+      <c r="J18">
+        <v>0.5471377135049664</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.5283693333333334</v>
+      </c>
+      <c r="N18">
+        <v>1.585108</v>
+      </c>
+      <c r="O18">
+        <v>0.01466913098062581</v>
+      </c>
+      <c r="P18">
+        <v>0.01508291239967478</v>
+      </c>
+      <c r="Q18">
+        <v>3.037588604655111</v>
+      </c>
+      <c r="R18">
+        <v>27.338297441896</v>
+      </c>
+      <c r="S18">
+        <v>0.008011617021261221</v>
+      </c>
+      <c r="T18">
+        <v>0.008252430203353764</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>5.748987333333333</v>
+      </c>
+      <c r="H19">
+        <v>17.246962</v>
+      </c>
+      <c r="I19">
+        <v>0.5461548493801389</v>
+      </c>
+      <c r="J19">
+        <v>0.5471377135049664</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.65374</v>
+      </c>
+      <c r="N19">
+        <v>3.30748</v>
+      </c>
+      <c r="O19">
+        <v>0.0459128248697883</v>
+      </c>
+      <c r="P19">
+        <v>0.03147194456382552</v>
+      </c>
+      <c r="Q19">
+        <v>9.507330312626666</v>
+      </c>
+      <c r="R19">
+        <v>57.04398187576</v>
+      </c>
+      <c r="S19">
+        <v>0.02507551195137593</v>
+      </c>
+      <c r="T19">
+        <v>0.01721948778820655</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.5</v>
+      </c>
+      <c r="G20">
+        <v>0.0567275</v>
+      </c>
+      <c r="H20">
+        <v>0.113455</v>
+      </c>
+      <c r="I20">
+        <v>0.005389122887534367</v>
+      </c>
+      <c r="J20">
+        <v>0.00359921412743334</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.3106835</v>
+      </c>
+      <c r="N20">
+        <v>2.621367</v>
+      </c>
+      <c r="O20">
+        <v>0.03638853870331563</v>
+      </c>
+      <c r="P20">
+        <v>0.02494331542607714</v>
+      </c>
+      <c r="Q20">
+        <v>0.07435179824625</v>
+      </c>
+      <c r="R20">
+        <v>0.297407192985</v>
+      </c>
+      <c r="S20">
+        <v>0.0001961023067699684</v>
+      </c>
+      <c r="T20">
+        <v>8.977633326656279E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.5</v>
+      </c>
+      <c r="G21">
+        <v>0.0567275</v>
+      </c>
+      <c r="H21">
+        <v>0.113455</v>
+      </c>
+      <c r="I21">
+        <v>0.005389122887534367</v>
+      </c>
+      <c r="J21">
+        <v>0.00359921412743334</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.420479333333333</v>
+      </c>
+      <c r="N21">
+        <v>4.261438</v>
+      </c>
+      <c r="O21">
+        <v>0.03943680316282304</v>
+      </c>
+      <c r="P21">
+        <v>0.04054922191462366</v>
+      </c>
+      <c r="Q21">
+        <v>0.08058024138166667</v>
+      </c>
+      <c r="R21">
+        <v>0.48348144829</v>
+      </c>
+      <c r="S21">
+        <v>0.0002125297785359573</v>
+      </c>
+      <c r="T21">
+        <v>0.0001459453323715431</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.5</v>
+      </c>
+      <c r="G22">
+        <v>0.0567275</v>
+      </c>
+      <c r="H22">
+        <v>0.113455</v>
+      </c>
+      <c r="I22">
+        <v>0.005389122887534367</v>
+      </c>
+      <c r="J22">
+        <v>0.00359921412743334</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>17.64166233333333</v>
+      </c>
+      <c r="N22">
+        <v>52.924987</v>
+      </c>
+      <c r="O22">
+        <v>0.4897859114022</v>
+      </c>
+      <c r="P22">
+        <v>0.5036016111677731</v>
+      </c>
+      <c r="Q22">
+        <v>1.000767400014167</v>
+      </c>
+      <c r="R22">
+        <v>6.004604400085</v>
+      </c>
+      <c r="S22">
+        <v>0.002639516465129475</v>
+      </c>
+      <c r="T22">
+        <v>0.001812570033513241</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.5</v>
+      </c>
+      <c r="G23">
+        <v>0.0567275</v>
+      </c>
+      <c r="H23">
+        <v>0.113455</v>
+      </c>
+      <c r="I23">
+        <v>0.005389122887534367</v>
+      </c>
+      <c r="J23">
+        <v>0.00359921412743334</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>13.46419533333333</v>
+      </c>
+      <c r="N23">
+        <v>40.39258599999999</v>
+      </c>
+      <c r="O23">
+        <v>0.3738067908812475</v>
+      </c>
+      <c r="P23">
+        <v>0.3843509945280257</v>
+      </c>
+      <c r="Q23">
+        <v>0.7637901407716665</v>
+      </c>
+      <c r="R23">
+        <v>4.582740844629999</v>
+      </c>
+      <c r="S23">
+        <v>0.002014490732253904</v>
+      </c>
+      <c r="T23">
+        <v>0.001383361529398324</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
         <v>27</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>5.46602137962918</v>
-      </c>
-      <c r="H13">
-        <v>5.46602137962918</v>
-      </c>
-      <c r="I13">
-        <v>0.616710351239273</v>
-      </c>
-      <c r="J13">
-        <v>0.616710351239273</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1.64006329849918</v>
-      </c>
-      <c r="N13">
-        <v>1.64006329849918</v>
-      </c>
-      <c r="O13">
-        <v>0.0480415748637241</v>
-      </c>
-      <c r="P13">
-        <v>0.0480415748637241</v>
-      </c>
-      <c r="Q13">
-        <v>8.964621053541672</v>
-      </c>
-      <c r="R13">
-        <v>8.964621053541672</v>
-      </c>
-      <c r="S13">
-        <v>0.02962773650829512</v>
-      </c>
-      <c r="T13">
-        <v>0.02962773650829512</v>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.5</v>
+      </c>
+      <c r="G24">
+        <v>0.0567275</v>
+      </c>
+      <c r="H24">
+        <v>0.113455</v>
+      </c>
+      <c r="I24">
+        <v>0.005389122887534367</v>
+      </c>
+      <c r="J24">
+        <v>0.00359921412743334</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.5283693333333334</v>
+      </c>
+      <c r="N24">
+        <v>1.585108</v>
+      </c>
+      <c r="O24">
+        <v>0.01466913098062581</v>
+      </c>
+      <c r="P24">
+        <v>0.01508291239967478</v>
+      </c>
+      <c r="Q24">
+        <v>0.02997307135666667</v>
+      </c>
+      <c r="R24">
+        <v>0.17983842814</v>
+      </c>
+      <c r="S24">
+        <v>7.905374950793002E-05</v>
+      </c>
+      <c r="T24">
+        <v>5.428663139174896E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.5</v>
+      </c>
+      <c r="G25">
+        <v>0.0567275</v>
+      </c>
+      <c r="H25">
+        <v>0.113455</v>
+      </c>
+      <c r="I25">
+        <v>0.005389122887534367</v>
+      </c>
+      <c r="J25">
+        <v>0.00359921412743334</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.65374</v>
+      </c>
+      <c r="N25">
+        <v>3.30748</v>
+      </c>
+      <c r="O25">
+        <v>0.0459128248697883</v>
+      </c>
+      <c r="P25">
+        <v>0.03147194456382552</v>
+      </c>
+      <c r="Q25">
+        <v>0.09381253585</v>
+      </c>
+      <c r="R25">
+        <v>0.3752501434</v>
+      </c>
+      <c r="S25">
+        <v>0.0002474298553371332</v>
+      </c>
+      <c r="T25">
+        <v>0.0001132742674919197</v>
       </c>
     </row>
   </sheetData>
